--- a/biology/Botanique/Levisticum/Levisticum.xlsx
+++ b/biology/Botanique/Levisticum/Levisticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Levisticum regroupe des plantes herbacées de la famille des Apiaceae. Il n'y a qu'une seule espèce reconnue dans ce genre: la livèche (Levisticum officinale) ou ache des montagnes. La plante est indigène en Iran et en Afghanistan, mais elle s'est vite naturalisée en Europe et en Amérique du Nord[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Levisticum regroupe des plantes herbacées de la famille des Apiaceae. Il n'y a qu'une seule espèce reconnue dans ce genre: la livèche (Levisticum officinale) ou ache des montagnes. La plante est indigène en Iran et en Afghanistan, mais elle s'est vite naturalisée en Europe et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Levisticum regroupe des plantes vivaces herbacées, atteignant 2 mètres de hauteur, et dégageant une forte odeur de céleri. Les tiges sont creuses et cannelées. Les feuilles sont découpées et dentées et elles peuvent atteindre 70 cm de longueur.
-La floraison est une ombelle composée de 10 à 20 fleurets. Les fleurs sont jaune verdâtre et apparaissent en été[2].
+La floraison est une ombelle composée de 10 à 20 fleurets. Les fleurs sont jaune verdâtre et apparaissent en été.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Levisticum officinale W.D.J.Koch - la livèche</t>
         </is>
